--- a/Design/Excel/SkillBehaveConfig.xlsx
+++ b/Design/Excel/SkillBehaveConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19980" windowHeight="7520"/>
+    <workbookView windowWidth="20250" windowHeight="10220"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>Assets/Res/Configs/SkillConfigs/Skill_FarSingleAttack.bytes</t>
+  </si>
+  <si>
+    <t>远程攻击的伤害</t>
+  </si>
+  <si>
+    <t>-8660285537833189376</t>
+  </si>
+  <si>
+    <t>Assets/Res/Configs/SkillConfigs/Skill_FarSingleAttackDamage.bytes</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1070,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="3"/>
@@ -1142,8 +1151,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="8"/>
